--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251103_201957.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251103_201957.xlsx
@@ -4375,7 +4375,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
